--- a/EEPROM.xlsx
+++ b/EEPROM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\OneDrive\Documentos\Arduino\AQUAV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31F5E6A-06EA-43C0-9EE5-C4158746A668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C675EE98-4660-4AEB-BAD7-BEB4DB141D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{124D07EE-8BE2-4BE8-AA04-38A2FD36A163}"/>
+    <workbookView xWindow="-7635" yWindow="1305" windowWidth="5415" windowHeight="14160" xr2:uid="{124D07EE-8BE2-4BE8-AA04-38A2FD36A163}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>mac 1</t>
   </si>
@@ -149,25 +149,43 @@
     <t>minu 1 water temp min</t>
   </si>
   <si>
-    <t xml:space="preserve">SP max water temp </t>
-  </si>
-  <si>
-    <t>SP min water temp</t>
-  </si>
-  <si>
     <t>ON/OFF GW</t>
   </si>
   <si>
-    <t>SP max Enviroment temp</t>
-  </si>
-  <si>
-    <t>SP min Enviroment temp</t>
-  </si>
-  <si>
-    <t>SP max Envoroment hum</t>
-  </si>
-  <si>
-    <t>SP min Enviroment hum</t>
+    <t>SP min water temp 1</t>
+  </si>
+  <si>
+    <t>SP max Enviroment temp 1</t>
+  </si>
+  <si>
+    <t>SP min Enviroment temp 1</t>
+  </si>
+  <si>
+    <t>SP max Envoroment hum 1</t>
+  </si>
+  <si>
+    <t>SP min Enviroment hum 1</t>
+  </si>
+  <si>
+    <t>SP min water temp 0</t>
+  </si>
+  <si>
+    <t>SP max Enviroment temp 0</t>
+  </si>
+  <si>
+    <t>SP max water temp 1</t>
+  </si>
+  <si>
+    <t>SP max water temp 0</t>
+  </si>
+  <si>
+    <t>SP min Enviroment temp 0</t>
+  </si>
+  <si>
+    <t>SP max Envoroment hum 0</t>
+  </si>
+  <si>
+    <t>SP min Enviroment hum 0</t>
   </si>
 </sst>
 </file>
@@ -205,12 +223,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -225,14 +249,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,16 +572,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FCB2F6-0B9B-4AA4-B6C7-720F8AB064AD}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -627,8 +653,8 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>39</v>
+      <c r="B9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -643,7 +669,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -651,7 +677,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -659,7 +685,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -667,7 +693,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -675,7 +701,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -683,7 +709,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -691,7 +717,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -699,7 +725,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -707,7 +733,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -715,7 +741,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -723,7 +749,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -731,7 +757,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -739,7 +765,7 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -747,7 +773,7 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -755,7 +781,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -763,7 +789,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -771,7 +797,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -779,7 +805,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -787,7 +813,7 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -795,7 +821,7 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -803,7 +829,7 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -811,7 +837,7 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -819,7 +845,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -827,7 +853,7 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -835,7 +861,7 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -843,7 +869,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -851,7 +877,7 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -859,7 +885,7 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -867,7 +893,7 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -875,8 +901,8 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -884,7 +910,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,36 +918,82 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>41</v>
+      <c r="B43" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="C46" s="4"/>
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/EEPROM.xlsx
+++ b/EEPROM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\OneDrive\Documentos\Arduino\AQUAV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C675EE98-4660-4AEB-BAD7-BEB4DB141D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F35D0E-874F-4E67-AB0A-0B06E49F1BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7635" yWindow="1305" windowWidth="5415" windowHeight="14160" xr2:uid="{124D07EE-8BE2-4BE8-AA04-38A2FD36A163}"/>
+    <workbookView xWindow="-13980" yWindow="780" windowWidth="9225" windowHeight="14625" xr2:uid="{124D07EE-8BE2-4BE8-AA04-38A2FD36A163}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>mac 1</t>
   </si>
@@ -62,9 +62,6 @@
     <t>mac 8</t>
   </si>
   <si>
-    <t>max hum</t>
-  </si>
-  <si>
     <t>hour 0 hum max</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>minu 0 hum min</t>
   </si>
   <si>
-    <t>min hum</t>
-  </si>
-  <si>
     <t>hour 0 hum min</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>minu 1 hum max</t>
   </si>
   <si>
-    <t>max temp</t>
-  </si>
-  <si>
     <t>hour 0 temp max</t>
   </si>
   <si>
@@ -104,9 +95,6 @@
     <t>minu 1 temp max</t>
   </si>
   <si>
-    <t xml:space="preserve">min temp </t>
-  </si>
-  <si>
     <t>hour 0 temp min</t>
   </si>
   <si>
@@ -119,9 +107,6 @@
     <t>minu 1 temp min</t>
   </si>
   <si>
-    <t>max water temp</t>
-  </si>
-  <si>
     <t>hour 0 water temp max</t>
   </si>
   <si>
@@ -134,9 +119,6 @@
     <t>minu 1 water temp max</t>
   </si>
   <si>
-    <t>min water temp</t>
-  </si>
-  <si>
     <t>hour 0 water temp min</t>
   </si>
   <si>
@@ -186,6 +168,102 @@
   </si>
   <si>
     <t>SP min Enviroment hum 0</t>
+  </si>
+  <si>
+    <t>conf 1, 3 o 5 sens 1</t>
+  </si>
+  <si>
+    <t>conf 1, 3 o 5 sens 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr 1 </t>
+  </si>
+  <si>
+    <t>hr 2</t>
+  </si>
+  <si>
+    <t>hr3</t>
+  </si>
+  <si>
+    <t>hr4</t>
+  </si>
+  <si>
+    <t>hr5</t>
+  </si>
+  <si>
+    <t>hr1_2</t>
+  </si>
+  <si>
+    <t>hr2_2</t>
+  </si>
+  <si>
+    <t>hr3_2</t>
+  </si>
+  <si>
+    <t>hr4_2</t>
+  </si>
+  <si>
+    <t>hr5_2</t>
+  </si>
+  <si>
+    <t>max hum 1</t>
+  </si>
+  <si>
+    <t>max hum 0</t>
+  </si>
+  <si>
+    <t>min hum 1</t>
+  </si>
+  <si>
+    <t>min hum 0</t>
+  </si>
+  <si>
+    <t>max temp 1</t>
+  </si>
+  <si>
+    <t>max temp 0</t>
+  </si>
+  <si>
+    <t>min temp 1</t>
+  </si>
+  <si>
+    <t>min temp 0</t>
+  </si>
+  <si>
+    <t>min water temp 1</t>
+  </si>
+  <si>
+    <t>min water temp 0</t>
+  </si>
+  <si>
+    <t>max water temp 1</t>
+  </si>
+  <si>
+    <t>max water temp 0</t>
+  </si>
+  <si>
+    <t>_MaxTemp</t>
+  </si>
+  <si>
+    <t>_MinTemp</t>
+  </si>
+  <si>
+    <t>_minWaterTemp</t>
+  </si>
+  <si>
+    <t>_maxWaterTemp</t>
+  </si>
+  <si>
+    <t>_MaxHum</t>
+  </si>
+  <si>
+    <t>_MinHum</t>
+  </si>
+  <si>
+    <t>minu 1 hum min</t>
+  </si>
+  <si>
+    <t>flagSP</t>
   </si>
 </sst>
 </file>
@@ -223,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,8 +314,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -245,19 +329,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,427 +755,628 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FCB2F6-0B9B-4AA4-B6C7-720F8AB064AD}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="B1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>18</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>22</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>27</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>28</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>29</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>30</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>31</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>32</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>33</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <v>34</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
+        <v>35</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="4">
+        <v>36</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="4">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="C39" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="4">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="4">
+        <v>39</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="4">
+        <v>40</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="4">
+        <v>41</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="4">
+        <v>42</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="4">
+        <v>43</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="4">
+        <v>44</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="4">
+        <v>45</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="4">
+        <v>46</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="4">
+        <v>47</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="4">
+        <v>48</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="4">
+        <v>49</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="4">
+        <v>50</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="4">
+        <v>51</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="4">
+        <v>52</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="4">
+        <v>53</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="4">
+        <v>54</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="4">
+        <v>55</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
+        <v>56</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="4">
+        <v>57</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="4">
+        <v>58</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="4">
+        <v>59</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="4">
+        <v>60</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="4">
+        <v>61</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="4">
+        <v>62</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="4">
+        <v>63</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>48</v>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="4">
+        <v>64</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="4">
+        <v>65</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="4">
+        <v>66</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="4">
+        <v>67</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="9">
+        <v>68</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="4">
+        <v>69</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="9">
+        <v>70</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="4">
+        <v>71</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="9">
+        <v>72</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="4">
+        <v>73</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="9">
+        <v>74</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="9">
+        <v>75</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
